--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="10720" yWindow="5020" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
   <si>
     <t>clause</t>
   </si>
@@ -137,6 +137,9 @@
   </si>
   <si>
     <t>Entitlements</t>
+  </si>
+  <si>
+    <t>assigned_code</t>
   </si>
 </sst>
 </file>
@@ -673,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -750,10 +753,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
@@ -840,6 +843,14 @@
       </c>
       <c r="B10" s="5" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -856,7 +867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="5020" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="survey" sheetId="3" r:id="rId3"/>
     <sheet name="choices" sheetId="4" r:id="rId4"/>
     <sheet name="initial" sheetId="5" r:id="rId5"/>
+    <sheet name="properties" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>clause</t>
   </si>
@@ -140,13 +141,34 @@
   </si>
   <si>
     <t>assigned_code</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>SurveyUtil</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>SurveyUtil.formId</t>
+  </si>
+  <si>
+    <t>wrong_form</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,6 +222,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -318,7 +347,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -340,6 +369,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -867,7 +900,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1022,4 +1055,58 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/entitlements/forms/entitlements/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
     <sheet name="model" sheetId="2" r:id="rId2"/>
     <sheet name="survey" sheetId="3" r:id="rId3"/>
-    <sheet name="choices" sheetId="4" r:id="rId4"/>
-    <sheet name="initial" sheetId="5" r:id="rId5"/>
-    <sheet name="properties" sheetId="6" r:id="rId6"/>
+    <sheet name="initial" sheetId="5" r:id="rId4"/>
+    <sheet name="properties" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -24,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>clause</t>
   </si>
@@ -32,33 +39,12 @@
     <t>type</t>
   </si>
   <si>
-    <t>values_list</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
     <t>display.text</t>
   </si>
   <si>
-    <t>select_one</t>
-  </si>
-  <si>
-    <t>true_false</t>
-  </si>
-  <si>
-    <t>choice_list_name</t>
-  </si>
-  <si>
-    <t>data_value</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>string</t>
   </si>
   <si>
@@ -116,52 +102,70 @@
     <t>is_override</t>
   </si>
   <si>
+    <t>item_description</t>
+  </si>
+  <si>
+    <t>ranges</t>
+  </si>
+  <si>
+    <t>is_delivered</t>
+  </si>
+  <si>
+    <t>entitlements</t>
+  </si>
+  <si>
+    <t>Entitlements</t>
+  </si>
+  <si>
+    <t>assigned_code</t>
+  </si>
+  <si>
+    <t>partition</t>
+  </si>
+  <si>
+    <t>aspect</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>SurveyUtil</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>SurveyUtil.formId</t>
+  </si>
+  <si>
+    <t>wrong_form</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>This survey should not be administrated</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>locked</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
     <t>true</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>item_description</t>
-  </si>
-  <si>
-    <t>ranges</t>
-  </si>
-  <si>
-    <t>is_delivered</t>
-  </si>
-  <si>
-    <t>entitlements</t>
-  </si>
-  <si>
-    <t>Has the item pack been successfully delivered?</t>
-  </si>
-  <si>
-    <t>Entitlements</t>
-  </si>
-  <si>
-    <t>assigned_code</t>
-  </si>
-  <si>
-    <t>partition</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>SurveyUtil</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>SurveyUtil.formId</t>
-  </si>
-  <si>
-    <t>wrong_form</t>
+    <t>filterTypeOnCreation</t>
+  </si>
+  <si>
+    <t>READ_ONLY</t>
   </si>
 </sst>
 </file>
@@ -347,14 +351,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -366,7 +369,6 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -374,6 +376,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -382,6 +385,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -713,74 +721,69 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="23">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15">
+        <v>20160805</v>
+      </c>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="16"/>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="23">
-      <c r="A2" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="17"/>
-    </row>
-    <row r="3" spans="1:3" ht="23">
-      <c r="A3" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="16">
-        <v>20160805</v>
-      </c>
-      <c r="C3" s="17"/>
-    </row>
-    <row r="4" spans="1:3" ht="23">
-      <c r="A4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" ht="23">
-      <c r="A5" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="23">
-      <c r="A6" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="17"/>
+      <c r="B6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -792,220 +795,146 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B1" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="18.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="22.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="63.1640625" style="7" customWidth="1"/>
-    <col min="5" max="6" width="10.83203125" style="6"/>
+    <col min="2" max="2" width="22.6640625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="63.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" s="7" t="s">
         <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1013,100 +942,124 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="25">
-      <c r="A2" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="145">
-      <c r="A3" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
-        <v>28</v>
+      <c r="C1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="C3" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="D3" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="20" t="s">
+      <c r="E3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="20" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>44</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>clause</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>READ_ONLY</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
   </si>
 </sst>
 </file>
@@ -898,8 +901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -917,7 +920,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -985,7 +988,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -69,9 +69,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>form_id</t>
   </si>
   <si>
@@ -169,6 +166,9 @@
   </si>
   <si>
     <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
   </si>
 </sst>
 </file>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -737,21 +737,21 @@
         <v>11</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C2" s="16"/>
     </row>
     <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="15">
         <v>20160805</v>
@@ -760,25 +760,25 @@
     </row>
     <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="16"/>
     </row>
     <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="15"/>
       <c r="C5" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6" s="15" t="s">
         <v>7</v>
@@ -833,7 +833,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -873,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -881,7 +881,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -889,7 +889,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -901,7 +901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -920,15 +920,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -958,12 +958,12 @@
         <v>3</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -971,12 +971,12 @@
     </row>
     <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -996,13 +996,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C1" s="18" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>31</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>1</v>
@@ -1013,53 +1013,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="C2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="18" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="20" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
       <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
+    <workbookView xWindow="16780" yWindow="14000" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="model" sheetId="2" r:id="rId2"/>
-    <sheet name="survey" sheetId="3" r:id="rId3"/>
-    <sheet name="initial" sheetId="5" r:id="rId4"/>
-    <sheet name="properties" sheetId="6" r:id="rId5"/>
+    <sheet name="table_specific_translations" sheetId="7" r:id="rId2"/>
+    <sheet name="model" sheetId="2" r:id="rId3"/>
+    <sheet name="survey" sheetId="3" r:id="rId4"/>
+    <sheet name="initial" sheetId="5" r:id="rId5"/>
+    <sheet name="properties" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>clause</t>
   </si>
@@ -169,6 +170,30 @@
   </si>
   <si>
     <t>display.title.text</t>
+  </si>
+  <si>
+    <t>string_token</t>
+  </si>
+  <si>
+    <t>text.default</t>
+  </si>
+  <si>
+    <t>text.spanish</t>
+  </si>
+  <si>
+    <t>Is Override</t>
+  </si>
+  <si>
+    <t>click_to_deliver</t>
+  </si>
+  <si>
+    <t>Click To Deliver</t>
+  </si>
+  <si>
+    <t>entitlement_details</t>
+  </si>
+  <si>
+    <t>Entitlement Details</t>
   </si>
 </sst>
 </file>
@@ -720,7 +745,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -791,6 +816,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -897,7 +972,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -937,7 +1012,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -984,7 +1059,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16780" yWindow="14000" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -160,9 +160,6 @@
     <t>true</t>
   </si>
   <si>
-    <t>filterTypeOnCreation</t>
-  </si>
-  <si>
     <t>READ_ONLY</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>string_token</t>
   </si>
   <si>
-    <t>text.default</t>
-  </si>
-  <si>
     <t>text.spanish</t>
   </si>
   <si>
@@ -194,6 +188,12 @@
   </si>
   <si>
     <t>Entitlement Details</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>defaultAccessOnCreation</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -819,21 +819,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,23 +841,23 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1063,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,13 +1128,13 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -157,9 +157,6 @@
     <t>boolean</t>
   </si>
   <si>
-    <t>true</t>
-  </si>
-  <si>
     <t>READ_ONLY</t>
   </si>
   <si>
@@ -194,6 +191,9 @@
   </si>
   <si>
     <t>defaultAccessOnCreation</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -762,7 +762,7 @@
         <v>11</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -827,13 +827,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" t="s">
         <v>45</v>
-      </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -841,23 +841,23 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +995,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1064,7 +1064,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,7 +1117,7 @@
         <v>40</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1128,13 +1128,13 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/redcross/app-designer/app/config/tables/entitlements/forms/entitlements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/appGreece/config/tables/entitlements/forms/entitlements/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="15380" yWindow="4380" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
   <si>
     <t>clause</t>
   </si>
@@ -52,9 +52,6 @@
     <t>authorization_id</t>
   </si>
   <si>
-    <t>beneficiary_code</t>
-  </si>
-  <si>
     <t>authorization_name</t>
   </si>
   <si>
@@ -103,21 +100,12 @@
     <t>item_description</t>
   </si>
   <si>
-    <t>ranges</t>
-  </si>
-  <si>
-    <t>is_delivered</t>
-  </si>
-  <si>
     <t>entitlements</t>
   </si>
   <si>
     <t>Entitlements</t>
   </si>
   <si>
-    <t>assigned_code</t>
-  </si>
-  <si>
     <t>partition</t>
   </si>
   <si>
@@ -194,13 +182,79 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>متجاوز</t>
+  </si>
+  <si>
+    <t>لغو شده</t>
+  </si>
+  <si>
+    <t>Está anulado</t>
+  </si>
+  <si>
+    <t>اضغط هنا للتسليم</t>
+  </si>
+  <si>
+    <t>کلیک کنید برای ارائه</t>
+  </si>
+  <si>
+    <t>Haz click para entregar</t>
+  </si>
+  <si>
+    <t>تفاصيل الاستحقاق</t>
+  </si>
+  <si>
+    <t>اطلاعات استحقاق</t>
+  </si>
+  <si>
+    <t>Detalles del título</t>
+  </si>
+  <si>
+    <t>text.arabic</t>
+  </si>
+  <si>
+    <t>text.farsi</t>
+  </si>
+  <si>
+    <t>text.greek</t>
+  </si>
+  <si>
+    <t>Η παράκαμψη είναι</t>
+  </si>
+  <si>
+    <t>Κάντε κλικ για να παραδώσει</t>
+  </si>
+  <si>
+    <t>Λεπτομέρειες σχετικά με τα δικαιώματα</t>
+  </si>
+  <si>
+    <t>authorization_description</t>
+  </si>
+  <si>
+    <t>authorization_type</t>
+  </si>
+  <si>
+    <t>beneficiary_entity_id</t>
+  </si>
+  <si>
+    <t>individual_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>status_reason</t>
+  </si>
+  <si>
+    <t>date_created</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +315,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -389,8 +450,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -405,6 +464,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -755,60 +816,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="16"/>
-    </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="B3" s="13">
+        <v>20160805</v>
+      </c>
+      <c r="C3" s="14"/>
+    </row>
+    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="15">
-        <v>20160805</v>
-      </c>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="B4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16"/>
-    </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="16"/>
+      <c r="B6" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -817,47 +878,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="C3" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
+      <c r="C4" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -867,10 +973,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -888,27 +994,27 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="10" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -916,7 +1022,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -924,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -932,7 +1038,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -940,7 +1046,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -948,7 +1054,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -956,7 +1062,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -964,7 +1070,31 @@
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>27</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -995,15 +1125,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1023,35 +1153,35 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-    </row>
-    <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1063,78 +1193,78 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>53</v>
+        <v>36</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/appGreece/config/tables/entitlements/forms/entitlements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/entitlements/forms/entitlements/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
   <si>
     <t>clause</t>
   </si>
@@ -248,6 +248,9 @@
   </si>
   <si>
     <t>date_created</t>
+  </si>
+  <si>
+    <t>assigned_item_pack_code</t>
   </si>
 </sst>
 </file>
@@ -973,10 +976,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1094,6 +1097,14 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>71</v>
       </c>
     </row>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -97,9 +97,6 @@
     <t>is_override</t>
   </si>
   <si>
-    <t>item_description</t>
-  </si>
-  <si>
     <t>entitlements</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>assigned_item_pack_code</t>
+  </si>
+  <si>
+    <t>item_pack_description</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -834,7 +834,7 @@
         <v>11</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C2" s="14"/>
     </row>
@@ -852,7 +852,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="14"/>
     </row>
@@ -862,7 +862,7 @@
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
@@ -891,22 +891,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -914,59 +914,59 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="s">
         <v>43</v>
       </c>
-      <c r="B3" t="s">
-        <v>44</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>54</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="s">
         <v>45</v>
       </c>
-      <c r="B4" t="s">
-        <v>46</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>57</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -979,7 +979,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1136,15 +1136,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1212,13 +1212,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>25</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>26</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>1</v>
@@ -1229,53 +1229,53 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>34</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
-        <v>36</v>
-      </c>
       <c r="E3" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
         <v>33</v>
       </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="4380" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="15380" yWindow="4380" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>defaultAccessOnCreation</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>متجاوز</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>item_pack_description</t>
+  </si>
+  <si>
+    <t>true</t>
   </si>
 </sst>
 </file>
@@ -897,13 +897,13 @@
         <v>46</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
       </c>
       <c r="F1" t="s">
         <v>40</v>
@@ -917,16 +917,16 @@
         <v>41</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="19" t="s">
         <v>50</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -937,16 +937,16 @@
         <v>43</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="19" t="s">
         <v>53</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -957,16 +957,16 @@
         <v>45</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="F4" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1001,7 +1001,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +1025,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +1033,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1258,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>48</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="4380" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="15380" yWindow="4380" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="initial" sheetId="5" r:id="rId5"/>
     <sheet name="properties" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -232,9 +232,6 @@
     <t>beneficiary_entity_id</t>
   </si>
   <si>
-    <t>individual_id</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>member_id</t>
   </si>
 </sst>
 </file>
@@ -884,7 +884,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,8 +978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1041,7 +1041,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +1057,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +1089,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +1097,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +1105,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1204,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1258,7 +1258,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="4380" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -883,8 +883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -978,7 +978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -9,15 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
-    <sheet name="table_specific_translations" sheetId="7" r:id="rId2"/>
-    <sheet name="model" sheetId="2" r:id="rId3"/>
-    <sheet name="survey" sheetId="3" r:id="rId4"/>
-    <sheet name="initial" sheetId="5" r:id="rId5"/>
-    <sheet name="properties" sheetId="6" r:id="rId6"/>
+    <sheet name="model" sheetId="2" r:id="rId2"/>
+    <sheet name="survey" sheetId="3" r:id="rId3"/>
+    <sheet name="initial" sheetId="5" r:id="rId4"/>
+    <sheet name="properties" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>clause</t>
   </si>
@@ -151,76 +150,7 @@
     <t>display.title.text</t>
   </si>
   <si>
-    <t>string_token</t>
-  </si>
-  <si>
-    <t>text.spanish</t>
-  </si>
-  <si>
-    <t>Is Override</t>
-  </si>
-  <si>
-    <t>click_to_deliver</t>
-  </si>
-  <si>
-    <t>Click To Deliver</t>
-  </si>
-  <si>
-    <t>entitlement_details</t>
-  </si>
-  <si>
-    <t>Entitlement Details</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
     <t>defaultAccessOnCreation</t>
-  </si>
-  <si>
-    <t>متجاوز</t>
-  </si>
-  <si>
-    <t>لغو شده</t>
-  </si>
-  <si>
-    <t>Está anulado</t>
-  </si>
-  <si>
-    <t>اضغط هنا للتسليم</t>
-  </si>
-  <si>
-    <t>کلیک کنید برای ارائه</t>
-  </si>
-  <si>
-    <t>Haz click para entregar</t>
-  </si>
-  <si>
-    <t>تفاصيل الاستحقاق</t>
-  </si>
-  <si>
-    <t>اطلاعات استحقاق</t>
-  </si>
-  <si>
-    <t>Detalles del título</t>
-  </si>
-  <si>
-    <t>text.arabic</t>
-  </si>
-  <si>
-    <t>text.farsi</t>
-  </si>
-  <si>
-    <t>text.greek</t>
-  </si>
-  <si>
-    <t>Η παράκαμψη είναι</t>
-  </si>
-  <si>
-    <t>Κάντε κλικ για να παραδώσει</t>
-  </si>
-  <si>
-    <t>Λεπτομέρειες σχετικά με τα δικαιώματα</t>
   </si>
   <si>
     <t>authorization_description</t>
@@ -257,7 +187,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,13 +248,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="9">
@@ -443,7 +366,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -467,8 +390,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -881,101 +802,6 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1001,7 +827,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1025,7 +851,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1033,7 +859,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1041,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1057,7 +883,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1081,7 +907,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1089,7 +915,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1097,7 +923,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1105,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1113,12 +939,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
@@ -1153,12 +979,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1200,7 +1026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -1258,7 +1084,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -1269,7 +1095,7 @@
         <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>4</v>

--- a/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
+++ b/app/config/tables/entitlements/forms/entitlements/entitlements.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ori/Documents/new_redcross_repos/redcross-app-designer/app/config/tables/entitlements/forms/entitlements/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\clarice\red-cross\redcross-app-designer\app\config\tables\entitlements\forms\entitlements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3760" yWindow="1180" windowWidth="25040" windowHeight="15500" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   <calcPr calcId="140000" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>clause</t>
   </si>
@@ -51,9 +51,6 @@
     <t>authorization_id</t>
   </si>
   <si>
-    <t>authorization_name</t>
-  </si>
-  <si>
     <t>item_pack_id</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>defaultAccessOnCreation</t>
   </si>
   <si>
-    <t>authorization_description</t>
-  </si>
-  <si>
     <t>authorization_type</t>
   </si>
   <si>
@@ -181,12 +175,15 @@
   </si>
   <si>
     <t>member_id</t>
+  </si>
+  <si>
+    <t>distribution_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -401,6 +398,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -730,68 +730,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="C1" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="B2" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="14"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="12" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="14"/>
-    </row>
-    <row r="3" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>12</v>
       </c>
       <c r="B3" s="13">
         <v>20160805</v>
       </c>
       <c r="C3" s="14"/>
     </row>
-    <row r="4" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="12" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="14"/>
-    </row>
-    <row r="5" spans="1:3" ht="24" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>14</v>
       </c>
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="24" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -802,19 +802,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="25" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="30.33203125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="7" t="s">
         <v>1</v>
       </c>
@@ -822,71 +822,71 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="5" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -894,44 +894,36 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -943,18 +935,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="24" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="23.5" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.6640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="22.6640625" style="5" customWidth="1"/>
     <col min="3" max="3" width="63.1640625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -962,15 +954,15 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>30</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -987,9 +979,9 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1000,25 +992,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="26" x14ac:dyDescent="0.35">
+      <c r="A2" s="15" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="27" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>17</v>
       </c>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
     </row>
-    <row r="3" spans="1:4" ht="157" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="138.5" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="15"/>
       <c r="C3" s="15"/>
       <c r="D3" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1034,74 +1026,74 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>24</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>25</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="C2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="D2" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" t="s">
         <v>32</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>33</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>34</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
